--- a/paper/tables/Table4.xlsx
+++ b/paper/tables/Table4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andres/research/covid/models/EpiRisk/ILM-MLE/paper/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB85B0F-F709-3148-9296-10711FE93CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68DFE1A-AD8C-E149-AB57-4FEE6A81974A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44640" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{79B969FB-F9B5-4D49-9D2C-DB566FCA3F74}"/>
+    <workbookView xWindow="5560" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{79B969FB-F9B5-4D49-9D2C-DB566FCA3F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>0.81</v>
       </c>
       <c r="E4" s="1">
-        <v>0.8</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
